--- a/biology/Zoologie/Adelophryne/Adelophryne.xlsx
+++ b/biology/Zoologie/Adelophryne/Adelophryne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelophryne est un genre d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelophryne est un genre d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud dans l'est des Andes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent dans le nord de l'Amérique du Sud dans l'est des Andes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (18 novembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (18 novembre 2014) :
 Adelophryne adiastola Hoogmoed &amp; Lescure, 1984
 Adelophryne amapaensis Taucce, Costa-Campos, Haddad, Carvalho, 2020
 Adelophryne baturitensis Hoogmoed, Borges &amp; Cascon, 1994
@@ -582,9 +598,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre vient du grec adelos, invisible, inconnu ou obscur, et du grec phrynos, le crapaud[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre vient du grec adelos, invisible, inconnu ou obscur, et du grec phrynos, le crapaud.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hoogmoed &amp; Lescure, 1984 : A new genus and two new species of minute leptodactylid frogs from northern South America, with comments upon Phyzelaphryne (Amphibia: Anura: Leptodactylidae). Zoologische Mededelingen (Leiden), vol. 58, no 6, p. 85-115.</t>
         </is>
